--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>worst</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>addicted</t>
@@ -70,10 +76,16 @@
     <t>wrong</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>shit</t>
@@ -82,10 +94,13 @@
     <t>crazy</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>dark</t>
   </si>
   <si>
     <t>fucked</t>
@@ -94,24 +109,18 @@
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -139,24 +148,21 @@
     <t>better</t>
   </si>
   <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
@@ -172,30 +178,36 @@
     <t>social</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
@@ -203,12 +215,6 @@
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -744,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -794,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.88</v>
@@ -844,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0.7241379310344828</v>
@@ -944,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6923076923076923</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>0.6666666666666666</v>
@@ -1044,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.725</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1094,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.5789473684210527</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,49 +1250,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6382978723404256</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>0.375</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>30</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
-        <v>0.4848484848484849</v>
-      </c>
-      <c r="L15">
-        <v>16</v>
-      </c>
-      <c r="M15">
-        <v>16</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6285714285714286</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L16">
         <v>13</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
       <c r="M16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.3055555555555556</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6086956521739131</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C18">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.288135593220339</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,38 +1450,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5882352941176471</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="L19">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>10</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.2668488160291439</v>
-      </c>
-      <c r="L19">
-        <v>293</v>
-      </c>
-      <c r="M19">
-        <v>293</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>805</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,31 +1500,31 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>14</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.1971830985915493</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L20">
         <v>14</v>
@@ -1536,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5217391304347826</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.1851851851851852</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.1789473684210526</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4583333333333333</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,16 +1671,16 @@
         <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.1506849315068493</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4102564102564102</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1712,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.1475409836065574</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1744,38 +1750,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3214285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0.1267605633802817</v>
+      </c>
+      <c r="L25">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>9</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25">
-        <v>0.1411764705882353</v>
-      </c>
-      <c r="L25">
-        <v>12</v>
-      </c>
-      <c r="M25">
-        <v>12</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1794,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1812,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.072992700729927</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L26">
         <v>10</v>
@@ -1836,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1844,13 +1850,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2051282051282051</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1862,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K27">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,37 +1900,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05405405405405406</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.03765060240963856</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1936,21 +1942,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>639</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.03519061583577713</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1962,21 +1992,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>329</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>67</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.03409090909090909</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1988,21 +2042,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>595</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.05067567567567568</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0.17</v>
+      </c>
+      <c r="F31">
+        <v>0.83</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>281</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.03180212014134275</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2014,21 +2092,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>274</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.03174603174603174</v>
+        <v>0.02246543778801843</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2040,21 +2118,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>305</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.01785714285714286</v>
+        <v>0.01920614596670935</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2066,33 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34">
-        <v>0.01664532650448143</v>
-      </c>
-      <c r="L34">
-        <v>13</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
